--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value420.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value420.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.098813898972769</v>
+        <v>1.703413605690002</v>
       </c>
       <c r="B1">
-        <v>1.730022442291649</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>2.71080139873451</v>
+        <v>2.337289571762085</v>
       </c>
       <c r="D1">
-        <v>2.60168700072546</v>
+        <v>1.514947533607483</v>
       </c>
       <c r="E1">
-        <v>0.7129410717079508</v>
+        <v>1.237128615379333</v>
       </c>
     </row>
   </sheetData>
